--- a/Escalada/escalada/Under_11B_Finala.xlsx
+++ b/Escalada/escalada/Under_11B_Finala.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Nume si prenume</t>
   </si>
@@ -50,30 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">One Move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiş Damian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corpade Tudor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skai Urban Crag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preda Sebastian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baba Eduard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS alternative TM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tudosă Ilie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climber </t>
   </si>
 </sst>
 </file>
@@ -309,17 +285,17 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="2" width="11.51"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -360,44 +336,24 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
